--- a/Results/word2vec_top_category_combinations.xlsx
+++ b/Results/word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3886</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3676</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2799</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1941</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1735</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>595</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/Results/word2vec_top_category_combinations.xlsx
+++ b/Results/word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3923</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3694</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2803</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>569</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/Results/word2vec_top_category_combinations.xlsx
+++ b/Results/word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3931</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3701</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2779</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1970</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>601</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/Results/word2vec_top_category_combinations.xlsx
+++ b/Results/word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3916</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3677</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2816</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1932</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1736</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="7">
@@ -537,37 +537,37 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vintage &amp; Collectibles</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Vintage &amp; Collectibles</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
